--- a/data/trans_orig/Q4506_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q4506_R-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>19101</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11939</v>
+        <v>10273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31832</v>
+        <v>29109</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06499470327556947</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0406248040543755</v>
+        <v>0.03495648668756057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1083115161941034</v>
+        <v>0.09904745836115769</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -763,19 +763,19 @@
         <v>79858</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63355</v>
+        <v>66221</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94976</v>
+        <v>95045</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2791075108461278</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2214288206571866</v>
+        <v>0.2314461636735874</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3319436447498859</v>
+        <v>0.3321851098014724</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -784,19 +784,19 @@
         <v>98960</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80480</v>
+        <v>82863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119300</v>
+        <v>120991</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1706172194367028</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1387560586014026</v>
+        <v>0.1428642918328587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2056865946601068</v>
+        <v>0.2086014121355373</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>14781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8696</v>
+        <v>8796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25276</v>
+        <v>26053</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05029616144069993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02958809228661752</v>
+        <v>0.02993135247377709</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08600689803851336</v>
+        <v>0.08864882333669065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -834,19 +834,19 @@
         <v>28587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19193</v>
+        <v>19168</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41752</v>
+        <v>40238</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09991378630914716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06707927588611551</v>
+        <v>0.06699202386474251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1459250038267597</v>
+        <v>0.1406317089682436</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -855,19 +855,19 @@
         <v>43369</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30049</v>
+        <v>31339</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57583</v>
+        <v>58408</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07477269063112489</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0518069583972037</v>
+        <v>0.0540317210127334</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09927962412438954</v>
+        <v>0.100701724797018</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>16058</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9917</v>
+        <v>9388</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27348</v>
+        <v>26006</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05464074006613101</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03374280154144559</v>
+        <v>0.03194240053683425</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09305478834778373</v>
+        <v>0.08848853557061973</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -905,19 +905,19 @@
         <v>27268</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17994</v>
+        <v>18213</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39075</v>
+        <v>39444</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09530169621665306</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06289075535578288</v>
+        <v>0.06365494830439136</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1365677093927631</v>
+        <v>0.1378597898612858</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>39</v>
@@ -926,19 +926,19 @@
         <v>43326</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31832</v>
+        <v>33172</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>58376</v>
+        <v>59096</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07469891662672921</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05488113339198477</v>
+        <v>0.05719146331821229</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1006467618300194</v>
+        <v>0.1018887848057669</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>15650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8347</v>
+        <v>9259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23680</v>
+        <v>25003</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05325189337780041</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02840137169230716</v>
+        <v>0.03150427642910131</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08057628763141877</v>
+        <v>0.08507600822838962</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -976,19 +976,19 @@
         <v>7235</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3067</v>
+        <v>3099</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14616</v>
+        <v>13792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02528782336688064</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01072028896873206</v>
+        <v>0.01083141664038154</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05108255271510443</v>
+        <v>0.04820238325382947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -997,19 +997,19 @@
         <v>22885</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14780</v>
+        <v>14306</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36219</v>
+        <v>34203</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03945713037332157</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02548187130885576</v>
+        <v>0.0246659607052274</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06244639163039933</v>
+        <v>0.05896959191294798</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>228298</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>213312</v>
+        <v>211993</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>242720</v>
+        <v>241575</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7768165018397992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7258238454219434</v>
+        <v>0.7213380528645753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8258916500549227</v>
+        <v>0.8219929430988571</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -1047,19 +1047,19 @@
         <v>143171</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>125913</v>
+        <v>125625</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>161572</v>
+        <v>161117</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5003891832611913</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4400717554088865</v>
+        <v>0.439062632119875</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5646985947324432</v>
+        <v>0.5631085141174661</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>346</v>
@@ -1068,19 +1068,19 @@
         <v>371469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>348359</v>
+        <v>346470</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>396645</v>
+        <v>394368</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6404540429321216</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6006088277208834</v>
+        <v>0.5973535735296626</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6838609142973743</v>
+        <v>0.6799349728613645</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>50047</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36927</v>
+        <v>37778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67306</v>
+        <v>65452</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09899913142021502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07304560264003014</v>
+        <v>0.07473087216745004</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1331395128579514</v>
+        <v>0.1294737036166357</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -1193,19 +1193,19 @@
         <v>93181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77081</v>
+        <v>74369</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112157</v>
+        <v>112700</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1782553375089497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1474561331475953</v>
+        <v>0.142267816826381</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2145576865425949</v>
+        <v>0.2155968191384189</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -1214,19 +1214,19 @@
         <v>143227</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119550</v>
+        <v>120739</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167627</v>
+        <v>167356</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1392904625656451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1162639840858513</v>
+        <v>0.1174198079063198</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1630189445403351</v>
+        <v>0.1627559672519475</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>29243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18588</v>
+        <v>19313</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42887</v>
+        <v>44240</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05784640833808081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03676910975877336</v>
+        <v>0.03820362238406217</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08483594165904385</v>
+        <v>0.08751349599355999</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -1264,19 +1264,19 @@
         <v>44278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32308</v>
+        <v>32962</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58753</v>
+        <v>59936</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08470334016787018</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06180544476476328</v>
+        <v>0.06305604693899555</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1123956769856599</v>
+        <v>0.1146582745271203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -1285,19 +1285,19 @@
         <v>73520</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58441</v>
+        <v>56207</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90837</v>
+        <v>91252</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07149961718197591</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05683419181935279</v>
+        <v>0.05466220409562643</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08834007057577624</v>
+        <v>0.08874372115403581</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>68294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54369</v>
+        <v>54131</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85789</v>
+        <v>85831</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1350953299625882</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1075481678029155</v>
+        <v>0.1070787087985835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.169702375476836</v>
+        <v>0.1697850821103502</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -1335,19 +1335,19 @@
         <v>94208</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76993</v>
+        <v>78019</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113499</v>
+        <v>113956</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1802197107553016</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1472883870901799</v>
+        <v>0.1492500670405043</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2171244007874142</v>
+        <v>0.2179991985886874</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>152</v>
@@ -1356,19 +1356,19 @@
         <v>162502</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>139682</v>
+        <v>140816</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>185190</v>
+        <v>188377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1580351281055392</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1358426223582808</v>
+        <v>0.1369451637976397</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1800992435625979</v>
+        <v>0.183199257073043</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>43465</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31914</v>
+        <v>32213</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59320</v>
+        <v>58163</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08597896510128866</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06313098858568617</v>
+        <v>0.06372107866323178</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1173427190705503</v>
+        <v>0.1150537608412118</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1406,19 +1406,19 @@
         <v>45117</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32720</v>
+        <v>32470</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61697</v>
+        <v>59414</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08630830655047959</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06259336529426789</v>
+        <v>0.06211462503826295</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1180262453492045</v>
+        <v>0.1136588551352856</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -1427,19 +1427,19 @@
         <v>88581</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71691</v>
+        <v>72404</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108820</v>
+        <v>109014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08614639180569603</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06972019218008765</v>
+        <v>0.07041428623461977</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1058286702100367</v>
+        <v>0.106017936958713</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>314478</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291461</v>
+        <v>292989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>336997</v>
+        <v>336022</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6220801651778273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.576548013218418</v>
+        <v>0.5795720983378717</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6666254811289705</v>
+        <v>0.6646962813012087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>224</v>
@@ -1477,19 +1477,19 @@
         <v>245955</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223510</v>
+        <v>223137</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>269481</v>
+        <v>270770</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4705133050173989</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4275757926302339</v>
+        <v>0.4268634911915177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5155201410020845</v>
+        <v>0.5179860322351436</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>518</v>
@@ -1498,19 +1498,19 @@
         <v>560433</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>528290</v>
+        <v>526625</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>593892</v>
+        <v>594311</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5450284003411437</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5137689761346579</v>
+        <v>0.5121495971601587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5775680476551192</v>
+        <v>0.5779748916982113</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>35637</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24263</v>
+        <v>25829</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48627</v>
+        <v>50546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1106114616102838</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07530782829142249</v>
+        <v>0.08016991129564303</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1509319377648989</v>
+        <v>0.1568873340190499</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>99</v>
@@ -1623,19 +1623,19 @@
         <v>105783</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89359</v>
+        <v>89437</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124212</v>
+        <v>123553</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3101946702485754</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2620351740268556</v>
+        <v>0.2622621093838325</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.364235731588346</v>
+        <v>0.362304466386706</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>130</v>
@@ -1644,19 +1644,19 @@
         <v>141420</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119525</v>
+        <v>120824</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162098</v>
+        <v>164486</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2132377694932336</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1802250935264316</v>
+        <v>0.1821833385200524</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2444182664251649</v>
+        <v>0.2480188690925186</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>40098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28581</v>
+        <v>28377</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54100</v>
+        <v>52940</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1244580325555008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08871070323068268</v>
+        <v>0.08807870501460509</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1679189080521069</v>
+        <v>0.164318328442708</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -1694,19 +1694,19 @@
         <v>60340</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47645</v>
+        <v>47330</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75669</v>
+        <v>74947</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1769406703470535</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1397135032653362</v>
+        <v>0.1387903357150249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2218897143278661</v>
+        <v>0.2197724605770331</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -1715,19 +1715,19 @@
         <v>100438</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81750</v>
+        <v>80656</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>121252</v>
+        <v>121269</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1514447684700764</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.123265124747674</v>
+        <v>0.1216166758692926</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1828286090404115</v>
+        <v>0.1828535418765806</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>68954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>55464</v>
+        <v>54389</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84469</v>
+        <v>84196</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2140212917226546</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1721510012590177</v>
+        <v>0.1688164928094733</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.26217876760438</v>
+        <v>0.261331514081981</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -1765,19 +1765,19 @@
         <v>52616</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40588</v>
+        <v>39445</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>68793</v>
+        <v>65667</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1542900360604886</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1190208315278149</v>
+        <v>0.1156683149200548</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.201728213031367</v>
+        <v>0.1925601506227349</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>119</v>
@@ -1786,19 +1786,19 @@
         <v>121570</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>103141</v>
+        <v>104008</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>141981</v>
+        <v>142934</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1833072939086895</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1555204316671356</v>
+        <v>0.1568271872969203</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2140837366763586</v>
+        <v>0.2155217561163684</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>54894</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42448</v>
+        <v>41593</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70437</v>
+        <v>68779</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1703833813859672</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1317514748694639</v>
+        <v>0.1290993687002357</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2186243710606209</v>
+        <v>0.2134800843825788</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1836,19 +1836,19 @@
         <v>26058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15703</v>
+        <v>18087</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36468</v>
+        <v>38011</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07641114460169039</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04604629483812232</v>
+        <v>0.05303861823853954</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1069380266247479</v>
+        <v>0.1114619579458919</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -1857,19 +1857,19 @@
         <v>80952</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65485</v>
+        <v>65683</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99400</v>
+        <v>99793</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1220625643669829</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09874031300918173</v>
+        <v>0.09903912045109953</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1498794312819652</v>
+        <v>0.150471536493552</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>122598</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105838</v>
+        <v>105753</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>139656</v>
+        <v>140710</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3805258327255935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3285035424824182</v>
+        <v>0.3282411545044658</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.43347205849864</v>
+        <v>0.436741358924387</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -1907,19 +1907,19 @@
         <v>96223</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78516</v>
+        <v>81175</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115004</v>
+        <v>114331</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2821634787421921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2302398904471623</v>
+        <v>0.2380345194722077</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3372344296955442</v>
+        <v>0.3352611993252825</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>214</v>
@@ -1928,19 +1928,19 @@
         <v>218822</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195716</v>
+        <v>194185</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>243944</v>
+        <v>243283</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3299476037610176</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2951086554099462</v>
+        <v>0.2927991248654861</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3678286455078357</v>
+        <v>0.3668319916650508</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>21024</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13069</v>
+        <v>13125</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31426</v>
+        <v>32490</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0563621445907774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03503600159508712</v>
+        <v>0.03518704688524289</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08424702495911389</v>
+        <v>0.08710083630086592</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -2053,19 +2053,19 @@
         <v>81877</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66300</v>
+        <v>66199</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98663</v>
+        <v>100058</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2105079854685412</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1704581687119717</v>
+        <v>0.1701991740645431</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2536648757554755</v>
+        <v>0.2572517972481104</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>97</v>
@@ -2074,19 +2074,19 @@
         <v>102901</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84030</v>
+        <v>83875</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>120710</v>
+        <v>123708</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1350468108934926</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1102804445625926</v>
+        <v>0.1100769445103145</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1584189660570528</v>
+        <v>0.1623538334356965</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>14127</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7843</v>
+        <v>7966</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23250</v>
+        <v>22767</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03787321929845661</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02102675349252138</v>
+        <v>0.02135550753460346</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06233051895451637</v>
+        <v>0.06103552044654089</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -2124,19 +2124,19 @@
         <v>29698</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>21419</v>
+        <v>20452</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43003</v>
+        <v>41493</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07635413177980885</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05506767845320432</v>
+        <v>0.05258152908570054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1105621786576728</v>
+        <v>0.1066791649559747</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -2145,19 +2145,19 @@
         <v>43825</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>32758</v>
+        <v>32596</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>58986</v>
+        <v>59709</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05751603119904013</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04299181941675569</v>
+        <v>0.04277815174880349</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07741302898141321</v>
+        <v>0.07836198061750796</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>15246</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9099</v>
+        <v>8622</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25171</v>
+        <v>24512</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04087103514692159</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02439368108341559</v>
+        <v>0.02311446258957029</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06748069283540993</v>
+        <v>0.0657124728659635</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -2195,19 +2195,19 @@
         <v>57562</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44323</v>
+        <v>44459</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72302</v>
+        <v>72773</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1479940354036668</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.113954612127186</v>
+        <v>0.1143047311980533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1858887277100719</v>
+        <v>0.1871005620689334</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -2216,19 +2216,19 @@
         <v>72808</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57292</v>
+        <v>57663</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89960</v>
+        <v>91123</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09555261124751679</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0751897338080923</v>
+        <v>0.07567588901473758</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1180622989004166</v>
+        <v>0.1195890484335612</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>29445</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19799</v>
+        <v>20424</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41787</v>
+        <v>42586</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07893866263883817</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05307888461829893</v>
+        <v>0.05475453335495541</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1120236130691029</v>
+        <v>0.1141666168598996</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -2266,19 +2266,19 @@
         <v>24581</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15238</v>
+        <v>16141</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35567</v>
+        <v>36836</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06319864080417104</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03917647758329187</v>
+        <v>0.04149968524841288</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09144446779658548</v>
+        <v>0.09470622229248692</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -2287,19 +2287,19 @@
         <v>54027</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40143</v>
+        <v>41457</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69504</v>
+        <v>71285</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07090407436447563</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05268378947593971</v>
+        <v>0.05440788540663206</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0912168756906616</v>
+        <v>0.09355340396349149</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>293175</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>275466</v>
+        <v>276616</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>307757</v>
+        <v>307736</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7859549383250062</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7384810298593287</v>
+        <v>0.7415629435147613</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8250469999973574</v>
+        <v>0.8249928911175491</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>188</v>
@@ -2337,19 +2337,19 @@
         <v>195232</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>175521</v>
+        <v>173912</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>216493</v>
+        <v>215811</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.501945206543812</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4512679044970172</v>
+        <v>0.4471318331785836</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5566062673116686</v>
+        <v>0.5548551568295675</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>455</v>
@@ -2358,19 +2358,19 @@
         <v>488407</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>461031</v>
+        <v>461627</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>514441</v>
+        <v>515408</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6409804722954748</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6050533924556514</v>
+        <v>0.6058348252730332</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6751475210903174</v>
+        <v>0.6764172098765204</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>8412</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4105</v>
+        <v>4141</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15870</v>
+        <v>15874</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03956603459042039</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01930585873468735</v>
+        <v>0.01947605417753447</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0746428409192238</v>
+        <v>0.07466078768326202</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>33</v>
@@ -2483,19 +2483,19 @@
         <v>35422</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25590</v>
+        <v>25163</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>48196</v>
+        <v>47723</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1613103459647437</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1165352474532038</v>
+        <v>0.1145916159149887</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2194803534665652</v>
+        <v>0.2173247557103233</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>41</v>
@@ -2504,19 +2504,19 @@
         <v>43835</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>33584</v>
+        <v>31202</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>58903</v>
+        <v>57555</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1014202593845868</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07770365965500434</v>
+        <v>0.07219154392506302</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1362831701555177</v>
+        <v>0.1331647615524464</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>21801</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14439</v>
+        <v>13780</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32346</v>
+        <v>32825</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1025379245650161</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06790973598562944</v>
+        <v>0.06481053565341612</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1521315534690516</v>
+        <v>0.1543825823329175</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -2554,19 +2554,19 @@
         <v>34091</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24334</v>
+        <v>24285</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>45925</v>
+        <v>46314</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1552465220484782</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1108131853486873</v>
+        <v>0.110593015212076</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2091409258430544</v>
+        <v>0.2109118210560889</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>53</v>
@@ -2575,19 +2575,19 @@
         <v>55892</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41799</v>
+        <v>42901</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70593</v>
+        <v>71462</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1293174052694829</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0967095323445482</v>
+        <v>0.09926097855942471</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1633307068742948</v>
+        <v>0.1653406457013456</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>29964</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20679</v>
+        <v>20119</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41740</v>
+        <v>41007</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1409300684881856</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09726055068001199</v>
+        <v>0.09462434370685334</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1963126035172739</v>
+        <v>0.19286877212714</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>47</v>
@@ -2625,19 +2625,19 @@
         <v>50067</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>39140</v>
+        <v>39015</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>63636</v>
+        <v>63689</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2280022844638679</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.17824231073858</v>
+        <v>0.1776703801203825</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2897941741394321</v>
+        <v>0.2900346421669744</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>75</v>
@@ -2646,19 +2646,19 @@
         <v>80032</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65343</v>
+        <v>64172</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>99203</v>
+        <v>98451</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1851685578228253</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.151184471600881</v>
+        <v>0.1484736626646343</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2295252200892429</v>
+        <v>0.2277847425391445</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>33447</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23833</v>
+        <v>23225</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45497</v>
+        <v>44552</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1573090128936869</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1120924729844134</v>
+        <v>0.1092350250347482</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2139832582455191</v>
+        <v>0.2095400029941172</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -2696,19 +2696,19 @@
         <v>27398</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>19286</v>
+        <v>18506</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37929</v>
+        <v>37346</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1247666999867701</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08782785332928482</v>
+        <v>0.08427344800677607</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1727235813662634</v>
+        <v>0.1700685006716523</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>59</v>
@@ -2717,19 +2717,19 @@
         <v>60844</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>48977</v>
+        <v>48239</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>76931</v>
+        <v>76573</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.140775348896216</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1133176381393244</v>
+        <v>0.1116113942232093</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1779942131098752</v>
+        <v>0.1771662584219219</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>118993</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>103089</v>
+        <v>103549</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>133110</v>
+        <v>135082</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5596569594626911</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4848569890899843</v>
+        <v>0.4870176198992294</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6260542366419355</v>
+        <v>0.63532698766636</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -2767,19 +2767,19 @@
         <v>72613</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>59980</v>
+        <v>58969</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>86601</v>
+        <v>86609</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3306741475361401</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2731423434391021</v>
+        <v>0.2685408241904602</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.394372334301382</v>
+        <v>0.3944085335698102</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>180</v>
@@ -2788,19 +2788,19 @@
         <v>191606</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>168927</v>
+        <v>172768</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>212776</v>
+        <v>213289</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.443318428626889</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3908458086615768</v>
+        <v>0.3997320122014004</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4922983567308962</v>
+        <v>0.4934867201665031</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>39125</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>27956</v>
+        <v>28066</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>52734</v>
+        <v>51465</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1428035759577345</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1020345808710991</v>
+        <v>0.1024378879352041</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1924736984941168</v>
+        <v>0.1878425915829412</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>71</v>
@@ -2913,19 +2913,19 @@
         <v>72736</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>58148</v>
+        <v>59763</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>87699</v>
+        <v>87889</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2597436090557806</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2076469481748804</v>
+        <v>0.2134172957437542</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3131743560694387</v>
+        <v>0.3138556949815953</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>109</v>
@@ -2934,19 +2934,19 @@
         <v>111862</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>93989</v>
+        <v>95066</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>131537</v>
+        <v>131433</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2019121044496634</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1696507289574015</v>
+        <v>0.1715961255037309</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2374271479638378</v>
+        <v>0.2372389662433852</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>30386</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>20725</v>
+        <v>20912</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>43677</v>
+        <v>41807</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1109049835517286</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07564212361136892</v>
+        <v>0.07632771058271051</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1594177679562572</v>
+        <v>0.1525896393534538</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>34</v>
@@ -2984,19 +2984,19 @@
         <v>35648</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>25905</v>
+        <v>25299</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>49271</v>
+        <v>48343</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1272985987604783</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09250859166522775</v>
+        <v>0.09034470731824028</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1759494032130524</v>
+        <v>0.1726339527345151</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>63</v>
@@ -3005,19 +3005,19 @@
         <v>66033</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>49705</v>
+        <v>52234</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>83464</v>
+        <v>83208</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1191913030094943</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08971840492378597</v>
+        <v>0.09428315803231596</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1506541669382562</v>
+        <v>0.1501908509343965</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>48575</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36227</v>
+        <v>37294</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>63171</v>
+        <v>64674</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.17729500144929</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1322243216937235</v>
+        <v>0.1361196751332142</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2305667943887606</v>
+        <v>0.2360531716595493</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>55</v>
@@ -3055,19 +3055,19 @@
         <v>56772</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>43989</v>
+        <v>43356</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>71533</v>
+        <v>70800</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2027364662372741</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1570868762133214</v>
+        <v>0.154826777387071</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2554454131544834</v>
+        <v>0.2528288288697671</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>98</v>
@@ -3076,19 +3076,19 @@
         <v>105348</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>87518</v>
+        <v>87890</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>125849</v>
+        <v>124564</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1901546484534611</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.157970824272198</v>
+        <v>0.1586431986637532</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2271586628512272</v>
+        <v>0.2248396665520796</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>58145</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>45504</v>
+        <v>44277</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>73177</v>
+        <v>72858</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2122244776609873</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1660838878553284</v>
+        <v>0.1616056749058549</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2670866440754341</v>
+        <v>0.2659239328729865</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>36</v>
@@ -3126,19 +3126,19 @@
         <v>36902</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>27342</v>
+        <v>26399</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>51405</v>
+        <v>49246</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.131777731449425</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0976380994193931</v>
+        <v>0.09427133274223203</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1835682175660243</v>
+        <v>0.175860319267937</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>91</v>
@@ -3147,19 +3147,19 @@
         <v>95047</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>78343</v>
+        <v>78043</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>115468</v>
+        <v>113961</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.171561852001028</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1414097733822586</v>
+        <v>0.1408687288858052</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.208421751971287</v>
+        <v>0.2057015914338805</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>97749</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>83678</v>
+        <v>81480</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>116257</v>
+        <v>114124</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3567719613802596</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3054162505237101</v>
+        <v>0.2973945292980946</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.424325483431909</v>
+        <v>0.4165386032015961</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>73</v>
@@ -3197,19 +3197,19 @@
         <v>77973</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>64318</v>
+        <v>61969</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>95243</v>
+        <v>93932</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.278443594497042</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2296808758523085</v>
+        <v>0.2212927613184736</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3401167429408909</v>
+        <v>0.3354355521458002</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>169</v>
@@ -3218,19 +3218,19 @@
         <v>175722</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>154079</v>
+        <v>152774</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>198601</v>
+        <v>198069</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3171800920863532</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2781154241760257</v>
+        <v>0.2757589940649293</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3584785817400056</v>
+        <v>0.3575170503464897</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>57970</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>44806</v>
+        <v>44308</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>74102</v>
+        <v>75579</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08759009820591099</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0676995505838843</v>
+        <v>0.06694734841626254</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1119651425753292</v>
+        <v>0.1141959102711539</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>136</v>
@@ -3343,19 +3343,19 @@
         <v>151778</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>130141</v>
+        <v>129322</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>176350</v>
+        <v>175913</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2190538508984733</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1878262290473634</v>
+        <v>0.1866433765333035</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2545169418117437</v>
+        <v>0.2538867855361667</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>190</v>
@@ -3364,19 +3364,19 @@
         <v>209748</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>185630</v>
+        <v>181665</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>238988</v>
+        <v>238538</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1548283412246453</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1370253028399195</v>
+        <v>0.1340979549554331</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.176411530865077</v>
+        <v>0.176079683105201</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>64185</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>48897</v>
+        <v>49360</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>80678</v>
+        <v>83093</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09698106556578336</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07388031674671508</v>
+        <v>0.07458034595392897</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1219005121622576</v>
+        <v>0.1255500579741136</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>88</v>
@@ -3414,19 +3414,19 @@
         <v>94644</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>77317</v>
+        <v>77471</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>113529</v>
+        <v>114904</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1365948601370293</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1115877724286731</v>
+        <v>0.1118098139495977</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.16385066451031</v>
+        <v>0.1658345954165915</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>145</v>
@@ -3435,19 +3435,19 @@
         <v>158829</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>135216</v>
+        <v>136963</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>189108</v>
+        <v>189485</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1172418742809019</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09981104465438233</v>
+        <v>0.1011010512432601</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.139592567286775</v>
+        <v>0.1398703536944332</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>122165</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>103600</v>
+        <v>102117</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>145218</v>
+        <v>143258</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1845846080413324</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1565351675366343</v>
+        <v>0.1542944736976387</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2194165131469261</v>
+        <v>0.2164560636495307</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>138</v>
@@ -3485,19 +3485,19 @@
         <v>145924</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>124626</v>
+        <v>123303</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>168812</v>
+        <v>166779</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2106040086432993</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1798667952345986</v>
+        <v>0.1779563783794493</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2436384266117068</v>
+        <v>0.2407043563679215</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>251</v>
@@ -3506,19 +3506,19 @@
         <v>268088</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>238777</v>
+        <v>238211</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>297055</v>
+        <v>298121</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1978924495188854</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1762561138686216</v>
+        <v>0.1758381137145063</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2192748818219494</v>
+        <v>0.2200614049894747</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>137399</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>116730</v>
+        <v>116239</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>158703</v>
+        <v>160550</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2076024127669886</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1763737354376546</v>
+        <v>0.1756306953892952</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2397925463146319</v>
+        <v>0.2425826827463147</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>70</v>
@@ -3556,19 +3556,19 @@
         <v>74024</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>58513</v>
+        <v>58970</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>91786</v>
+        <v>92581</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1068349689731086</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08444821069190028</v>
+        <v>0.08510821940142489</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1324702664645541</v>
+        <v>0.1336181279971199</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>202</v>
@@ -3577,19 +3577,19 @@
         <v>211422</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>186190</v>
+        <v>186177</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>238465</v>
+        <v>241176</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1560640553458796</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1374387568110958</v>
+        <v>0.1374289025398512</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1760261568098985</v>
+        <v>0.1780272230154854</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>280116</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>255291</v>
+        <v>254392</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>306956</v>
+        <v>307090</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4232418154199847</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3857321487292582</v>
+        <v>0.3843743607013601</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4637955641884036</v>
+        <v>0.463998426588861</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>203</v>
@@ -3627,19 +3627,19 @@
         <v>226511</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>200450</v>
+        <v>201122</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>253705</v>
+        <v>251213</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3269123113480896</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.289298722700762</v>
+        <v>0.2902693748708076</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.366158901302066</v>
+        <v>0.3625628355703535</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>464</v>
@@ -3648,19 +3648,19 @@
         <v>506628</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>469718</v>
+        <v>470574</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>542034</v>
+        <v>544020</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3739732796296878</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3467276741390232</v>
+        <v>0.3473599333858792</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4001090465270983</v>
+        <v>0.4015749223011615</v>
       </c>
     </row>
     <row r="45">
@@ -3752,19 +3752,19 @@
         <v>36130</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>25137</v>
+        <v>24991</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>50104</v>
+        <v>51598</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04649162796375435</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.03234588605384264</v>
+        <v>0.03215848660150989</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.06447318975295263</v>
+        <v>0.06639551268962214</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>80</v>
@@ -3773,19 +3773,19 @@
         <v>87039</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>70085</v>
+        <v>69510</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>106742</v>
+        <v>106391</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1063406963397001</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08562769174368226</v>
+        <v>0.08492399886946644</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1304134513805182</v>
+        <v>0.129984064063855</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>112</v>
@@ -3794,19 +3794,19 @@
         <v>123169</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>101111</v>
+        <v>101741</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>148365</v>
+        <v>147288</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07719181926869279</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06336787494546488</v>
+        <v>0.06376262500710371</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09298240708764563</v>
+        <v>0.09230778198239238</v>
       </c>
     </row>
     <row r="47">
@@ -3823,19 +3823,19 @@
         <v>103588</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>85749</v>
+        <v>85907</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>123590</v>
+        <v>123386</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1332954789584767</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1103408088470806</v>
+        <v>0.11054301331755</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1590341067537807</v>
+        <v>0.1587706321016444</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>179</v>
@@ -3844,19 +3844,19 @@
         <v>192666</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>170231</v>
+        <v>165869</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>220356</v>
+        <v>217896</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2353919352213782</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2079814094213802</v>
+        <v>0.2026522595789142</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2692221227294925</v>
+        <v>0.2662172093991348</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>277</v>
@@ -3865,19 +3865,19 @@
         <v>296254</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>265188</v>
+        <v>264669</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>328202</v>
+        <v>331172</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1856668996652877</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.166197038591475</v>
+        <v>0.1658719492372461</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.205688643215706</v>
+        <v>0.207550450934609</v>
       </c>
     </row>
     <row r="48">
@@ -3894,19 +3894,19 @@
         <v>147226</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>126478</v>
+        <v>125741</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>170590</v>
+        <v>168208</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1894483625978088</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1627494200130394</v>
+        <v>0.1618015096198116</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2195128478440085</v>
+        <v>0.2164470966592387</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>160</v>
@@ -3915,19 +3915,19 @@
         <v>171275</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>146617</v>
+        <v>146798</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>193553</v>
+        <v>193159</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2092568430538142</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1791306971148119</v>
+        <v>0.1793520364050531</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2364753060059176</v>
+        <v>0.2359944272320673</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>298</v>
@@ -3936,19 +3936,19 @@
         <v>318501</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>287287</v>
+        <v>285491</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>354216</v>
+        <v>351358</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1996093250983364</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1800469649451391</v>
+        <v>0.178921621319259</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2219924221201761</v>
+        <v>0.2202014126335538</v>
       </c>
     </row>
     <row r="49">
@@ -3965,19 +3965,19 @@
         <v>68013</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>53914</v>
+        <v>53664</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>85359</v>
+        <v>84754</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.08751789714925454</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.06937616413341779</v>
+        <v>0.06905329811915996</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1098390136764544</v>
+        <v>0.1090606194636524</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>60</v>
@@ -3986,19 +3986,19 @@
         <v>66219</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>51103</v>
+        <v>51219</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>84657</v>
+        <v>83690</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08090427765129909</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.06243601000078541</v>
+        <v>0.06257746641236187</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1034305115933352</v>
+        <v>0.1022494276098613</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>125</v>
@@ -4007,19 +4007,19 @@
         <v>134232</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>112841</v>
+        <v>111743</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>158292</v>
+        <v>158147</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.08412537343393289</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.07071926738377922</v>
+        <v>0.07003100564605086</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.09920374104570413</v>
+        <v>0.09911271943034559</v>
       </c>
     </row>
     <row r="50">
@@ -4036,19 +4036,19 @@
         <v>422174</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>391265</v>
+        <v>395061</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>450844</v>
+        <v>449905</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.5432466333307057</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5034728779378466</v>
+        <v>0.5083571659191101</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5801387876765622</v>
+        <v>0.5789293288386123</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>274</v>
@@ -4057,19 +4057,19 @@
         <v>301292</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>271374</v>
+        <v>275003</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>330131</v>
+        <v>332720</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3681062477338085</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3315543963046192</v>
+        <v>0.3359872702217241</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4033406489147374</v>
+        <v>0.406504499408066</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>656</v>
@@ -4078,19 +4078,19 @@
         <v>723466</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>682734</v>
+        <v>680626</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>766144</v>
+        <v>764540</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.4534065825337502</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4278790238127453</v>
+        <v>0.4265580276376059</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4801536399543301</v>
+        <v>0.4791482838331284</v>
       </c>
     </row>
     <row r="51">
@@ -4182,19 +4182,19 @@
         <v>267447</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>236416</v>
+        <v>236254</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>301404</v>
+        <v>300819</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.07819681385531869</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.06912393288638127</v>
+        <v>0.06907656034912926</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.08812528561497145</v>
+        <v>0.08795419998977255</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>653</v>
@@ -4203,19 +4203,19 @@
         <v>707674</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>659162</v>
+        <v>657980</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>759599</v>
+        <v>756563</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1993549283200847</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1856889096408006</v>
+        <v>0.1853557427448514</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2139822808964885</v>
+        <v>0.213127121408257</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>899</v>
@@ -4224,19 +4224,19 @@
         <v>975122</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>915587</v>
+        <v>916541</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1039672</v>
+        <v>1036609</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1399026425428703</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.131361163963984</v>
+        <v>0.1314979075919392</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1491638072431689</v>
+        <v>0.1487243792031006</v>
       </c>
     </row>
     <row r="53">
@@ -4253,19 +4253,19 @@
         <v>318211</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>286452</v>
+        <v>284696</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>357704</v>
+        <v>356992</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.09303916823466958</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.08375352448955198</v>
+        <v>0.08324011873540399</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1045863026678633</v>
+        <v>0.1043781449104083</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>485</v>
@@ -4274,19 +4274,19 @@
         <v>519952</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>478025</v>
+        <v>474438</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>566193</v>
+        <v>561933</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1464726126043309</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1346617208013829</v>
+        <v>0.1336513281763831</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.159499161201874</v>
+        <v>0.1582990717311003</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>780</v>
@@ -4295,19 +4295,19 @@
         <v>838162</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>780112</v>
+        <v>784498</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>891924</v>
+        <v>899760</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1202528218890353</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1119242620225471</v>
+        <v>0.1125535305106811</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1279661133016589</v>
+        <v>0.1290903325710878</v>
       </c>
     </row>
     <row r="54">
@@ -4324,19 +4324,19 @@
         <v>516482</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>474114</v>
+        <v>477155</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>559746</v>
+        <v>560829</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1510103443258108</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.138622457754666</v>
+        <v>0.1395116511618985</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1636597106959627</v>
+        <v>0.1639764941459559</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>616</v>
@@ -4345,19 +4345,19 @@
         <v>655692</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>612150</v>
+        <v>610140</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>708305</v>
+        <v>701964</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1847111616357152</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1724453314300795</v>
+        <v>0.1718791227443888</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.199532508748657</v>
+        <v>0.1977462214426902</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1101</v>
@@ -4366,19 +4366,19 @@
         <v>1172174</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1106589</v>
+        <v>1112652</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1240436</v>
+        <v>1236766</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.168174170857299</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1587645482943399</v>
+        <v>0.1596343515963445</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1779677904933343</v>
+        <v>0.1774413383934057</v>
       </c>
     </row>
     <row r="55">
@@ -4395,19 +4395,19 @@
         <v>440458</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>400365</v>
+        <v>401474</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>482694</v>
+        <v>481361</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1287822103015457</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.117059790692689</v>
+        <v>0.117384035757314</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1411313189839741</v>
+        <v>0.1407414539820862</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>288</v>
@@ -4416,19 +4416,19 @@
         <v>307534</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>272959</v>
+        <v>275918</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>342371</v>
+        <v>344224</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.08663353635588064</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.0768936837838672</v>
+        <v>0.07772721545934781</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.09644727267218661</v>
+        <v>0.09696940368688381</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>711</v>
@@ -4437,19 +4437,19 @@
         <v>747992</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>696428</v>
+        <v>696212</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>805654</v>
+        <v>806794</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1073158903163909</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.09991796175134768</v>
+        <v>0.09988688316194326</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1155887989082118</v>
+        <v>0.1157523995327458</v>
       </c>
     </row>
     <row r="56">
@@ -4466,19 +4466,19 @@
         <v>1877581</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1816858</v>
+        <v>1819155</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1940067</v>
+        <v>1939978</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.5489714632826552</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5312171279978904</v>
+        <v>0.5318887423598294</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.5672414697304912</v>
+        <v>0.5672154318981091</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1249</v>
@@ -4487,19 +4487,19 @@
         <v>1358970</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1302808</v>
+        <v>1301027</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1422432</v>
+        <v>1426594</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3828277610839885</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3670066395065679</v>
+        <v>0.3665050374866791</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4007053505447729</v>
+        <v>0.4018776068818741</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>3002</v>
@@ -4508,19 +4508,19 @@
         <v>3236551</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>3149400</v>
+        <v>3142449</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>3315066</v>
+        <v>3322429</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4643544743944045</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4518507193947465</v>
+        <v>0.4508535214231973</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4756191949796258</v>
+        <v>0.4766754983365437</v>
       </c>
     </row>
     <row r="57">
@@ -4856,19 +4856,19 @@
         <v>58681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45790</v>
+        <v>46911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73935</v>
+        <v>76598</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1997576133825972</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1558754538994242</v>
+        <v>0.1596908833953545</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2516843974448359</v>
+        <v>0.2607506390270583</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -4877,19 +4877,19 @@
         <v>155199</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137744</v>
+        <v>137321</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171509</v>
+        <v>171825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5375742851230871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4771120470158704</v>
+        <v>0.4756477961556333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5940687517378179</v>
+        <v>0.5951626857614241</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -4898,19 +4898,19 @@
         <v>213880</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>189553</v>
+        <v>191688</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>238104</v>
+        <v>238961</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3671991830211972</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3254336245932746</v>
+        <v>0.329097768959436</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4087882889405221</v>
+        <v>0.4102586583722437</v>
       </c>
     </row>
     <row r="5">
@@ -4927,19 +4927,19 @@
         <v>16886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10049</v>
+        <v>9977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27334</v>
+        <v>27633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05748230227514917</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0342066457838482</v>
+        <v>0.03396409943575264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09304970378330205</v>
+        <v>0.09406674882684996</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -4948,19 +4948,19 @@
         <v>35753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24943</v>
+        <v>25918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48130</v>
+        <v>48616</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1238413476524615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08639818880188647</v>
+        <v>0.08977221422739788</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1667104835039048</v>
+        <v>0.1683939537551822</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -4969,19 +4969,19 @@
         <v>52639</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40098</v>
+        <v>39438</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68347</v>
+        <v>68343</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09037370061984634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0688425425215836</v>
+        <v>0.06770892193633041</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1173418547606854</v>
+        <v>0.1173335891136701</v>
       </c>
     </row>
     <row r="6">
@@ -4998,19 +4998,19 @@
         <v>28045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19004</v>
+        <v>18911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41188</v>
+        <v>39553</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09547020205509923</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06469222112150966</v>
+        <v>0.06437508555876893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.140208610000024</v>
+        <v>0.134643843386123</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -5019,19 +5019,19 @@
         <v>23088</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15063</v>
+        <v>15733</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33960</v>
+        <v>34789</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07997036661696612</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05217570914656974</v>
+        <v>0.05449616894949543</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1176306888932997</v>
+        <v>0.1205014215482486</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -5040,19 +5040,19 @@
         <v>51133</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39266</v>
+        <v>37546</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67113</v>
+        <v>66105</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0877875830726509</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06741426260722874</v>
+        <v>0.06446097119141235</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1152217135127947</v>
+        <v>0.113492623363189</v>
       </c>
     </row>
     <row r="7">
@@ -5069,19 +5069,19 @@
         <v>22109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14186</v>
+        <v>13583</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33189</v>
+        <v>33255</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07526092710490746</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04829009544114122</v>
+        <v>0.04623817313968875</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1129786427670062</v>
+        <v>0.1132030933872962</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -5090,19 +5090,19 @@
         <v>11232</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5877</v>
+        <v>5607</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19675</v>
+        <v>21031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03890558546576466</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02035732440547567</v>
+        <v>0.01942166778003934</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0681507903660712</v>
+        <v>0.0728477951123415</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -5111,19 +5111,19 @@
         <v>33341</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21549</v>
+        <v>22996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46336</v>
+        <v>46308</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05724110754584808</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03699588802327917</v>
+        <v>0.0394799864030147</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0795517931904297</v>
+        <v>0.07950409432253844</v>
       </c>
     </row>
     <row r="8">
@@ -5140,19 +5140,19 @@
         <v>168040</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>148879</v>
+        <v>151249</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>184688</v>
+        <v>185570</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5720289551822469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5068020937231206</v>
+        <v>0.514870030733486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6287010441245523</v>
+        <v>0.6317038603675643</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -5161,19 +5161,19 @@
         <v>63430</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50846</v>
+        <v>49845</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77591</v>
+        <v>78244</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2197084151417206</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1761188351799157</v>
+        <v>0.1726504861648103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2687572417588346</v>
+        <v>0.2710203758768714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>213</v>
@@ -5182,19 +5182,19 @@
         <v>231470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>206968</v>
+        <v>206013</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>253507</v>
+        <v>256210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3973984257404575</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3553317889904992</v>
+        <v>0.3536914895862878</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4352329032578338</v>
+        <v>0.43987248152985</v>
       </c>
     </row>
     <row r="9">
@@ -5286,19 +5286,19 @@
         <v>58847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45662</v>
+        <v>45148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76121</v>
+        <v>74077</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.117336437202175</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09104620921893361</v>
+        <v>0.09002163757120422</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1517811561863955</v>
+        <v>0.1477054641098089</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -5307,19 +5307,19 @@
         <v>131919</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114176</v>
+        <v>113476</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>152704</v>
+        <v>153537</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2527457178331051</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2187513728729771</v>
+        <v>0.2174107222829152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2925687828235344</v>
+        <v>0.2941650152576765</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -5328,19 +5328,19 @@
         <v>190765</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166240</v>
+        <v>165874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>217481</v>
+        <v>219066</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1863920007701022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1624291588298344</v>
+        <v>0.1620713704799297</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2124949816954595</v>
+        <v>0.2140441663521683</v>
       </c>
     </row>
     <row r="11">
@@ -5357,19 +5357,19 @@
         <v>206159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183923</v>
+        <v>181876</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>229278</v>
+        <v>228932</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4110671937156418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3667298301399777</v>
+        <v>0.3626492162586014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4571651796028182</v>
+        <v>0.4564748413134407</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -5378,19 +5378,19 @@
         <v>239372</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>214655</v>
+        <v>217509</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>260756</v>
+        <v>262221</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4586179538677504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4112614301467502</v>
+        <v>0.416729456521975</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4995873366195741</v>
+        <v>0.5023953652649975</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>419</v>
@@ -5399,19 +5399,19 @@
         <v>445531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>413305</v>
+        <v>413813</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>478673</v>
+        <v>477735</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4353169683624554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4038295638596516</v>
+        <v>0.4043259633584543</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4676997369752927</v>
+        <v>0.4667828682597631</v>
       </c>
     </row>
     <row r="12">
@@ -5428,19 +5428,19 @@
         <v>102286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>83282</v>
+        <v>83580</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>121465</v>
+        <v>120834</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2039507784773258</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1660590554530766</v>
+        <v>0.1666528051891123</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.242192385288728</v>
+        <v>0.2409352416813534</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -5449,19 +5449,19 @@
         <v>76794</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>60989</v>
+        <v>61833</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>95718</v>
+        <v>94957</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1471319768480028</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1168496136003198</v>
+        <v>0.1184674145883832</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1833886382195204</v>
+        <v>0.1819305817543146</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>168</v>
@@ -5470,19 +5470,19 @@
         <v>179080</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>155486</v>
+        <v>154121</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>203171</v>
+        <v>204778</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.174974519616152</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1519212902958812</v>
+        <v>0.1505878838305266</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.198513606586186</v>
+        <v>0.2000831398927313</v>
       </c>
     </row>
     <row r="13">
@@ -5499,19 +5499,19 @@
         <v>20710</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13404</v>
+        <v>13099</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30754</v>
+        <v>32116</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04129444724752304</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02672671904110969</v>
+        <v>0.02611763554714568</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06132231567412458</v>
+        <v>0.06403636969221979</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -5520,19 +5520,19 @@
         <v>12530</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6722</v>
+        <v>6606</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21970</v>
+        <v>21131</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0240055703250657</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01287868596207318</v>
+        <v>0.01265652822143052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04209247434889949</v>
+        <v>0.04048466013818281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -5541,19 +5541,19 @@
         <v>33240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23101</v>
+        <v>23619</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46350</v>
+        <v>47046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03247752470149103</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02257182328230883</v>
+        <v>0.02307726726632671</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04528721614099418</v>
+        <v>0.04596706877453441</v>
       </c>
     </row>
     <row r="14">
@@ -5570,19 +5570,19 @@
         <v>113520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95003</v>
+        <v>94186</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132400</v>
+        <v>133381</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2263511433573344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.189430023531107</v>
+        <v>0.187800282260697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2639964079137569</v>
+        <v>0.2659535598093331</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -5591,19 +5591,19 @@
         <v>61328</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46962</v>
+        <v>48059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76992</v>
+        <v>79739</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.117498781126076</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0899747021355881</v>
+        <v>0.09207821099491102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1475115027400181</v>
+        <v>0.1527727994461014</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>162</v>
@@ -5612,19 +5612,19 @@
         <v>174847</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>151161</v>
+        <v>149378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>203057</v>
+        <v>199970</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1708389865497994</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1476957996652902</v>
+        <v>0.1459531902561166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1984019263564607</v>
+        <v>0.195385305286972</v>
       </c>
     </row>
     <row r="15">
@@ -5716,19 +5716,19 @@
         <v>18667</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12322</v>
+        <v>12075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28598</v>
+        <v>27343</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05893538737853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03890211206691854</v>
+        <v>0.03812424966379066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09028921106235892</v>
+        <v>0.08632624078955375</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -5737,19 +5737,19 @@
         <v>47976</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35526</v>
+        <v>36412</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63183</v>
+        <v>62863</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1426544448528611</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1056342541820144</v>
+        <v>0.1082698218032266</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1878724027616684</v>
+        <v>0.1869193730323825</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -5758,19 +5758,19 @@
         <v>66643</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52052</v>
+        <v>52809</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83313</v>
+        <v>82394</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1020495034503706</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07970682637845733</v>
+        <v>0.08086528746077135</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1275756278364863</v>
+        <v>0.1261693800492437</v>
       </c>
     </row>
     <row r="17">
@@ -5787,19 +5787,19 @@
         <v>21815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13863</v>
+        <v>14447</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31633</v>
+        <v>31543</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06887319054814438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0437695803100847</v>
+        <v>0.04561238703299659</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09987099098333124</v>
+        <v>0.09958837561667006</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -5808,19 +5808,19 @@
         <v>25559</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17524</v>
+        <v>17119</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35604</v>
+        <v>36718</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07600001816305368</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05210549918255175</v>
+        <v>0.0509039910655245</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1058677311486702</v>
+        <v>0.1091806985959704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -5829,19 +5829,19 @@
         <v>47374</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36028</v>
+        <v>35649</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62703</v>
+        <v>62139</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07254340474169772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05516882059602191</v>
+        <v>0.05458889621149569</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09601595114220692</v>
+        <v>0.09515270927198734</v>
       </c>
     </row>
     <row r="18">
@@ -5858,19 +5858,19 @@
         <v>31876</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22836</v>
+        <v>22382</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43553</v>
+        <v>43000</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1006378508856914</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07209834137067463</v>
+        <v>0.07066465967888612</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1375068713593019</v>
+        <v>0.135760302543571</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>109</v>
@@ -5879,19 +5879,19 @@
         <v>111630</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>95041</v>
+        <v>94837</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>130653</v>
+        <v>129781</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3319277251949287</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2826004109586164</v>
+        <v>0.2819943113804959</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3884918306140713</v>
+        <v>0.3858967848155081</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>142</v>
@@ -5900,19 +5900,19 @@
         <v>143506</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>122363</v>
+        <v>125194</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165459</v>
+        <v>165009</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2197488249941532</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1873735803020939</v>
+        <v>0.1917086752173</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2533655187374155</v>
+        <v>0.2526766402719215</v>
       </c>
     </row>
     <row r="19">
@@ -5929,19 +5929,19 @@
         <v>79803</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65262</v>
+        <v>66294</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95599</v>
+        <v>98017</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2519541152208468</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2060465256673593</v>
+        <v>0.2093050300624893</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3018263847224425</v>
+        <v>0.3094590478653644</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -5950,19 +5950,19 @@
         <v>68906</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55851</v>
+        <v>54921</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85130</v>
+        <v>84053</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2048888617572326</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1660693292834785</v>
+        <v>0.1633042434685256</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2531312343396548</v>
+        <v>0.2499282654910444</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -5971,19 +5971,19 @@
         <v>148709</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127596</v>
+        <v>130171</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169136</v>
+        <v>171823</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2277161834762972</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1953856867301176</v>
+        <v>0.199329193874429</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2589962312262681</v>
+        <v>0.2631111461935132</v>
       </c>
     </row>
     <row r="20">
@@ -6000,19 +6000,19 @@
         <v>164576</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>148384</v>
+        <v>147442</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>182009</v>
+        <v>181549</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5195994559667875</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4684775153808597</v>
+        <v>0.4655052458711473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5746384478140368</v>
+        <v>0.5731874505844573</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -6021,19 +6021,19 @@
         <v>82237</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>66769</v>
+        <v>65937</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>98504</v>
+        <v>97006</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2445289500319239</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1985336231802567</v>
+        <v>0.196061514096877</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2928977527169476</v>
+        <v>0.2884442936969726</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>256</v>
@@ -6042,19 +6042,19 @@
         <v>246813</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>226363</v>
+        <v>220749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>273455</v>
+        <v>270359</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3779420833374814</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3466265218160419</v>
+        <v>0.3380297701726114</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4187382009176756</v>
+        <v>0.413997330685047</v>
       </c>
     </row>
     <row r="21">
@@ -6146,19 +6146,19 @@
         <v>66195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52087</v>
+        <v>53500</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82307</v>
+        <v>84170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1793920137286289</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1411580148995169</v>
+        <v>0.1449870179951582</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.223056137138412</v>
+        <v>0.2281047112702017</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -6167,19 +6167,19 @@
         <v>122587</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>104967</v>
+        <v>103793</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>140985</v>
+        <v>142256</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3165309117632668</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2710339358158271</v>
+        <v>0.2680023679681823</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3640363633872314</v>
+        <v>0.3673186692912367</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -6188,19 +6188,19 @@
         <v>188782</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166171</v>
+        <v>164904</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>215915</v>
+        <v>215409</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2496193068276569</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2197217417977564</v>
+        <v>0.2180458247004622</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2854955071787402</v>
+        <v>0.284826301912615</v>
       </c>
     </row>
     <row r="23">
@@ -6217,19 +6217,19 @@
         <v>38507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27176</v>
+        <v>27702</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>51262</v>
+        <v>52330</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1043543517515402</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07364693406987367</v>
+        <v>0.07507279007023761</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1389215615965842</v>
+        <v>0.1418172693406723</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>41</v>
@@ -6238,19 +6238,19 @@
         <v>46317</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34292</v>
+        <v>34036</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>61528</v>
+        <v>61136</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1195943441245197</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08854535227775835</v>
+        <v>0.08788474924777054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1588703878345122</v>
+        <v>0.1578589296324187</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>76</v>
@@ -6259,19 +6259,19 @@
         <v>84823</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>68333</v>
+        <v>68120</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>108256</v>
+        <v>107393</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1121585810879453</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09035334330793701</v>
+        <v>0.09007170026386276</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1431422547593928</v>
+        <v>0.1420014615120831</v>
       </c>
     </row>
     <row r="24">
@@ -6288,19 +6288,19 @@
         <v>31963</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23262</v>
+        <v>22461</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44617</v>
+        <v>44518</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0866218868304819</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06304137224858873</v>
+        <v>0.06086893470895326</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1209136572556137</v>
+        <v>0.1206466007840078</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -6309,19 +6309,19 @@
         <v>39172</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27434</v>
+        <v>28134</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52423</v>
+        <v>54188</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1011455391913911</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07083648938911655</v>
+        <v>0.0726450866992545</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1353600287800412</v>
+        <v>0.1399178607669674</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>70</v>
@@ -6330,19 +6330,19 @@
         <v>71135</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>55936</v>
+        <v>56898</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89870</v>
+        <v>90621</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0940592864729987</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07396127665288039</v>
+        <v>0.07523396714565633</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1188313912259922</v>
+        <v>0.1198249758622723</v>
       </c>
     </row>
     <row r="25">
@@ -6359,19 +6359,19 @@
         <v>28225</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19229</v>
+        <v>18549</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40514</v>
+        <v>40073</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07649013788006349</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05211075306488744</v>
+        <v>0.05026940327188165</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1097938486510712</v>
+        <v>0.108599040630376</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -6380,19 +6380,19 @@
         <v>21589</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13836</v>
+        <v>14026</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32448</v>
+        <v>34673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05574548545997252</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03572663212370072</v>
+        <v>0.03621739319498802</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08378247175506849</v>
+        <v>0.08952910988320949</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -6401,19 +6401,19 @@
         <v>49814</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36429</v>
+        <v>38360</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64653</v>
+        <v>66268</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06586703381096687</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04816888478489233</v>
+        <v>0.05072189184534871</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08548828856346823</v>
+        <v>0.08762399568545506</v>
       </c>
     </row>
     <row r="26">
@@ -6430,19 +6430,19 @@
         <v>204108</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>185614</v>
+        <v>184481</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>223823</v>
+        <v>223044</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5531416098092855</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5030219706015787</v>
+        <v>0.499950706101266</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6065707342635233</v>
+        <v>0.6044584130701203</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>144</v>
@@ -6451,19 +6451,19 @@
         <v>157618</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>137993</v>
+        <v>139203</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>177440</v>
+        <v>177664</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4069837194608498</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3563116461576026</v>
+        <v>0.3594340605785267</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4581650450535179</v>
+        <v>0.4587449053498762</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>340</v>
@@ -6472,19 +6472,19 @@
         <v>361726</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>332504</v>
+        <v>330567</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>388710</v>
+        <v>389989</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4782957918004322</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4396567580568482</v>
+        <v>0.4370956096696454</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5139760329522682</v>
+        <v>0.5156671759905104</v>
       </c>
     </row>
     <row r="27">
@@ -6576,19 +6576,19 @@
         <v>4682</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1803</v>
+        <v>1830</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10029</v>
+        <v>10315</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02216664157900128</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008536668167371574</v>
+        <v>0.008664265446628417</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.047480892752728</v>
+        <v>0.04883432375543369</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -6597,19 +6597,19 @@
         <v>14468</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8483</v>
+        <v>8899</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23615</v>
+        <v>23422</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06618760048820775</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0388077206941523</v>
+        <v>0.04071017672349283</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.108034720199656</v>
+        <v>0.1071502538686351</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -6618,19 +6618,19 @@
         <v>19150</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12166</v>
+        <v>12316</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28188</v>
+        <v>28904</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04455433418609263</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02830578218915765</v>
+        <v>0.02865417954914302</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06558311494354732</v>
+        <v>0.06724916321786123</v>
       </c>
     </row>
     <row r="29">
@@ -6647,19 +6647,19 @@
         <v>35829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26229</v>
+        <v>26056</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47438</v>
+        <v>48269</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1696289187749586</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1241779586486153</v>
+        <v>0.1233570982558954</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.22458952671544</v>
+        <v>0.2285242314905362</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>58</v>
@@ -6668,19 +6668,19 @@
         <v>54110</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>42633</v>
+        <v>42489</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>67432</v>
+        <v>67434</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2475429404941236</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1950388365214843</v>
+        <v>0.194382037168103</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3084914707498337</v>
+        <v>0.3084977921202646</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>93</v>
@@ -6689,19 +6689,19 @@
         <v>89939</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>74851</v>
+        <v>74547</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>109173</v>
+        <v>108091</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2092535705602268</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1741502633190028</v>
+        <v>0.1734425218644675</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.25400424368751</v>
+        <v>0.251486842444309</v>
       </c>
     </row>
     <row r="30">
@@ -6718,19 +6718,19 @@
         <v>27444</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19053</v>
+        <v>18812</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38141</v>
+        <v>37543</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1299282716427629</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09020375539829986</v>
+        <v>0.08906518853146909</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1805717858599289</v>
+        <v>0.1777434002002015</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>46</v>
@@ -6739,19 +6739,19 @@
         <v>43354</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33099</v>
+        <v>34112</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>56492</v>
+        <v>55983</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1983365226434062</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1514221131568294</v>
+        <v>0.1560578812649877</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2584405603564598</v>
+        <v>0.2561132918676111</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>74</v>
@@ -6760,19 +6760,19 @@
         <v>70797</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>56940</v>
+        <v>56735</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>85043</v>
+        <v>85500</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1647185836473216</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1324781170021504</v>
+        <v>0.1320005257699208</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1978630083535102</v>
+        <v>0.1989271359686556</v>
       </c>
     </row>
     <row r="31">
@@ -6789,19 +6789,19 @@
         <v>32346</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23003</v>
+        <v>22953</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44243</v>
+        <v>43157</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1531379191231189</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.108904489211422</v>
+        <v>0.1086675420433785</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.209462707715972</v>
+        <v>0.2043210335460521</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -6810,19 +6810,19 @@
         <v>30731</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21885</v>
+        <v>21784</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>41656</v>
+        <v>42982</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1405878543054619</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1001193041588399</v>
+        <v>0.09965979697984252</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1905693673108998</v>
+        <v>0.1966349039467576</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>62</v>
@@ -6831,19 +6831,19 @@
         <v>63077</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>49297</v>
+        <v>49731</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>79350</v>
+        <v>77737</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1467553459057505</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1146953872359087</v>
+        <v>0.1157041145753615</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1846163587689729</v>
+        <v>0.1808646603062087</v>
       </c>
     </row>
     <row r="32">
@@ -6860,19 +6860,19 @@
         <v>110920</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>95514</v>
+        <v>96147</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>124988</v>
+        <v>125099</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5251382488801584</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4521973346752931</v>
+        <v>0.4551984308020094</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5917401919946806</v>
+        <v>0.5922641246834041</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>73</v>
@@ -6881,19 +6881,19 @@
         <v>75925</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>62268</v>
+        <v>63330</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>90142</v>
+        <v>90161</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3473450820688005</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2848639244119104</v>
+        <v>0.289724573576669</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4123862992539968</v>
+        <v>0.4124732436184887</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>186</v>
@@ -6902,19 +6902,19 @@
         <v>186845</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>167696</v>
+        <v>166565</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>207825</v>
+        <v>207420</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4347181657006086</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3901641495186453</v>
+        <v>0.3875344670043806</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4835286979598579</v>
+        <v>0.4825866361428247</v>
       </c>
     </row>
     <row r="33">
@@ -7006,19 +7006,19 @@
         <v>33699</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>23744</v>
+        <v>24263</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>46821</v>
+        <v>46142</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1294121922482047</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09118329228660306</v>
+        <v>0.09317585716691389</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1798049908801135</v>
+        <v>0.1771978731381493</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>44</v>
@@ -7027,19 +7027,19 @@
         <v>43654</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>33196</v>
+        <v>32562</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>57184</v>
+        <v>56850</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1629190679160935</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.123889869079302</v>
+        <v>0.1215215276228711</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2134128087837797</v>
+        <v>0.2121673970997357</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>75</v>
@@ -7048,19 +7048,19 @@
         <v>77353</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>61546</v>
+        <v>62693</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>94911</v>
+        <v>94699</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1464050244629315</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1164868423696809</v>
+        <v>0.1186582015782763</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1796376895211008</v>
+        <v>0.1792351472853534</v>
       </c>
     </row>
     <row r="35">
@@ -7077,19 +7077,19 @@
         <v>45278</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33649</v>
+        <v>35040</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>58011</v>
+        <v>58524</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1738806842091195</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1292191523965832</v>
+        <v>0.1345613546009205</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2227778679669048</v>
+        <v>0.2247481533172147</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>57</v>
@@ -7098,19 +7098,19 @@
         <v>55943</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>43176</v>
+        <v>43548</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>69784</v>
+        <v>69900</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2087824200932873</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1611357980531535</v>
+        <v>0.1625230959435292</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2604380643702512</v>
+        <v>0.2608699836372053</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>102</v>
@@ -7119,19 +7119,19 @@
         <v>101221</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>83730</v>
+        <v>86202</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>119920</v>
+        <v>121596</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1915809122984471</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1584752938046502</v>
+        <v>0.163154379169889</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2269725109263755</v>
+        <v>0.2301446082677997</v>
       </c>
     </row>
     <row r="36">
@@ -7148,19 +7148,19 @@
         <v>26917</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18240</v>
+        <v>18146</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>38113</v>
+        <v>38698</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1033685140837586</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07004738865594279</v>
+        <v>0.06968368041408966</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1463630345560968</v>
+        <v>0.1486100950053199</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>35</v>
@@ -7169,19 +7169,19 @@
         <v>34942</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>25931</v>
+        <v>24847</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>46857</v>
+        <v>46408</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1304052814975686</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09677581265249979</v>
+        <v>0.09273086071904107</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.174874035865194</v>
+        <v>0.1731986585571191</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>62</v>
@@ -7190,19 +7190,19 @@
         <v>61859</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>49118</v>
+        <v>47404</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>78355</v>
+        <v>76506</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1170800656126216</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09296482932787556</v>
+        <v>0.08972133438403887</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1483025819214196</v>
+        <v>0.1448016881490369</v>
       </c>
     </row>
     <row r="37">
@@ -7219,19 +7219,19 @@
         <v>10441</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5018</v>
+        <v>4693</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19539</v>
+        <v>18678</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04009602942495142</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01926876059798877</v>
+        <v>0.01802397969728996</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07503309776826393</v>
+        <v>0.07172995191804893</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -7240,19 +7240,19 @@
         <v>6649</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2777</v>
+        <v>2790</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13174</v>
+        <v>13784</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02481403902032724</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0103656098312583</v>
+        <v>0.010411202353332</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04916713474908201</v>
+        <v>0.05144100697105369</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>16</v>
@@ -7261,19 +7261,19 @@
         <v>17090</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>9922</v>
+        <v>10061</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>27786</v>
+        <v>27354</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03234584998635604</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01877850113786181</v>
+        <v>0.01904196829083425</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05259024630490079</v>
+        <v>0.05177298541991829</v>
       </c>
     </row>
     <row r="38">
@@ -7290,19 +7290,19 @@
         <v>144064</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>126975</v>
+        <v>127755</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>159185</v>
+        <v>158238</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5532425800339658</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4876181665178523</v>
+        <v>0.4906123450744908</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6113106672856384</v>
+        <v>0.6076745713546017</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>116</v>
@@ -7311,19 +7311,19 @@
         <v>126761</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>110291</v>
+        <v>110190</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>143493</v>
+        <v>142639</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4730791914727234</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4116108068787354</v>
+        <v>0.4112345240524597</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5355226612309452</v>
+        <v>0.5323354408915622</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>260</v>
@@ -7332,19 +7332,19 @@
         <v>270825</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>245845</v>
+        <v>244655</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>293107</v>
+        <v>292673</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5125881476396437</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4653085230112646</v>
+        <v>0.4630561282298129</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.554760679526677</v>
+        <v>0.5539402760838513</v>
       </c>
     </row>
     <row r="39">
@@ -7436,19 +7436,19 @@
         <v>49129</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>36717</v>
+        <v>36219</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>65976</v>
+        <v>65271</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07583156870588466</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05667351075553049</v>
+        <v>0.05590551827956092</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1018361097896986</v>
+        <v>0.1007477754542571</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>113</v>
@@ -7457,19 +7457,19 @@
         <v>123826</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>105333</v>
+        <v>102078</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>146878</v>
+        <v>143970</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1803901223165876</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1534493499156857</v>
+        <v>0.1487076024385059</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2139715260817125</v>
+        <v>0.2097355519584419</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>156</v>
@@ -7478,19 +7478,19 @@
         <v>172955</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>148582</v>
+        <v>149436</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>199945</v>
+        <v>201189</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1296220395416052</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1113551135381723</v>
+        <v>0.1119953984716931</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1498495947948384</v>
+        <v>0.150781525488969</v>
       </c>
     </row>
     <row r="41">
@@ -7507,19 +7507,19 @@
         <v>83601</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>67051</v>
+        <v>66402</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>103991</v>
+        <v>102399</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1290403616512122</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1034941705092016</v>
+        <v>0.1024934652150041</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1605129400021258</v>
+        <v>0.1580554362929752</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>114</v>
@@ -7528,19 +7528,19 @@
         <v>120168</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>101710</v>
+        <v>100513</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>140613</v>
+        <v>140798</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1750599452752202</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1481704185566299</v>
+        <v>0.1464270595963348</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2048452409167636</v>
+        <v>0.2051143985858973</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>186</v>
@@ -7549,19 +7549,19 @@
         <v>203769</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>176745</v>
+        <v>176845</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>231425</v>
+        <v>230837</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.152715278578772</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1324625408640608</v>
+        <v>0.1325374267263808</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1734422578191527</v>
+        <v>0.1730016737971584</v>
       </c>
     </row>
     <row r="42">
@@ -7578,19 +7578,19 @@
         <v>101862</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>81994</v>
+        <v>83643</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>123300</v>
+        <v>125992</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1572260753184693</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1265595000452888</v>
+        <v>0.1291047950235924</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.19031659308395</v>
+        <v>0.1944720923184637</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>121</v>
@@ -7599,19 +7599,19 @@
         <v>125486</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>106795</v>
+        <v>106808</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>148759</v>
+        <v>147796</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1828071572005968</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1555780975864909</v>
+        <v>0.1555980818092875</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2167115433227386</v>
+        <v>0.2153096226846715</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>207</v>
@@ -7620,19 +7620,19 @@
         <v>227347</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>198473</v>
+        <v>203530</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>254651</v>
+        <v>257914</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.170386341900293</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1487464795041644</v>
+        <v>0.1525364782661874</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1908494282764672</v>
+        <v>0.1932943043005142</v>
       </c>
     </row>
     <row r="43">
@@ -7649,19 +7649,19 @@
         <v>112444</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>93237</v>
+        <v>93517</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>134520</v>
+        <v>134484</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1735595860827837</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1439129291815263</v>
+        <v>0.1443453857519138</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2076344276938299</v>
+        <v>0.2075787967852603</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>78</v>
@@ -7670,19 +7670,19 @@
         <v>80128</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>64477</v>
+        <v>65241</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>98191</v>
+        <v>97695</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1167304088327738</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09392991733597753</v>
+        <v>0.09504352582974401</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1430450373914008</v>
+        <v>0.1423225735147152</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>176</v>
@@ -7691,19 +7691,19 @@
         <v>192572</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>166295</v>
+        <v>165879</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>221643</v>
+        <v>218698</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1443236403287317</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1246306045193722</v>
+        <v>0.1243187523967308</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1661110437751419</v>
+        <v>0.1639043704263153</v>
       </c>
     </row>
     <row r="44">
@@ -7720,19 +7720,19 @@
         <v>300833</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>273688</v>
+        <v>273947</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>329340</v>
+        <v>326034</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4643424082416502</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4224433314661423</v>
+        <v>0.4228438471474955</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5083446520714258</v>
+        <v>0.5032409172862896</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>216</v>
@@ -7741,19 +7741,19 @@
         <v>236829</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>210895</v>
+        <v>211838</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>261567</v>
+        <v>263036</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3450123663748215</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3072308185468124</v>
+        <v>0.3086046285503218</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3810503502969263</v>
+        <v>0.3831896766727095</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>489</v>
@@ -7762,19 +7762,19 @@
         <v>537662</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>498739</v>
+        <v>502856</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>576621</v>
+        <v>576361</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.402952699650598</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3737816362661854</v>
+        <v>0.3768674439542168</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4321510720277217</v>
+        <v>0.4319557340580051</v>
       </c>
     </row>
     <row r="45">
@@ -7866,19 +7866,19 @@
         <v>44496</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>33185</v>
+        <v>32323</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>60461</v>
+        <v>61054</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.05736436435623937</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.04278206446866747</v>
+        <v>0.04167010131089969</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07794588019946162</v>
+        <v>0.07871092293672241</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>88</v>
@@ -7887,19 +7887,19 @@
         <v>98472</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>77854</v>
+        <v>81019</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>117555</v>
+        <v>120265</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1193853304561234</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.09438806927181013</v>
+        <v>0.09822561414461083</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1425209092779269</v>
+        <v>0.1458064410931638</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>127</v>
@@ -7908,19 +7908,19 @@
         <v>142968</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>120783</v>
+        <v>120074</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>170149</v>
+        <v>167243</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08932708159304575</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07546544163107076</v>
+        <v>0.07502238114487311</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1063095348959526</v>
+        <v>0.1044939892785869</v>
       </c>
     </row>
     <row r="47">
@@ -7937,19 +7937,19 @@
         <v>199345</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>175226</v>
+        <v>174808</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>224111</v>
+        <v>225689</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.256994294160811</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2259005476845402</v>
+        <v>0.2253617715339344</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2889229553477193</v>
+        <v>0.2909565574539283</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>318</v>
@@ -7958,19 +7958,19 @@
         <v>342695</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>313468</v>
+        <v>313853</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>371227</v>
+        <v>373069</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.4154757910191672</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3800422889622685</v>
+        <v>0.3805083106556029</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4500670605580859</v>
+        <v>0.4523003767999206</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>511</v>
@@ -7979,19 +7979,19 @@
         <v>542040</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>504225</v>
+        <v>506337</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>581070</v>
+        <v>582582</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3386682762008767</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.315041357429843</v>
+        <v>0.3163612830851726</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3630544257549718</v>
+        <v>0.3639990130155237</v>
       </c>
     </row>
     <row r="48">
@@ -8008,19 +8008,19 @@
         <v>184337</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>160070</v>
+        <v>162006</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>209025</v>
+        <v>208838</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2376458689983913</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.206361018990177</v>
+        <v>0.2088572080991761</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2694731163871875</v>
+        <v>0.2692330070781291</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>158</v>
@@ -8029,19 +8029,19 @@
         <v>170706</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>147600</v>
+        <v>146678</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>194023</v>
+        <v>196498</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2069602636769255</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1789471083835971</v>
+        <v>0.1778291172639612</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.235229897112568</v>
+        <v>0.238229359229781</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>338</v>
@@ -8050,19 +8050,19 @@
         <v>355043</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>322404</v>
+        <v>320511</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>390397</v>
+        <v>388382</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2218319372297263</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2014387442501844</v>
+        <v>0.2002564612492762</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.243921386770128</v>
+        <v>0.2426621822737844</v>
       </c>
     </row>
     <row r="49">
@@ -8079,19 +8079,19 @@
         <v>94079</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>76218</v>
+        <v>77726</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>113709</v>
+        <v>113807</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.121285588785988</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.09825929641815065</v>
+        <v>0.1002042537669354</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1465931401164039</v>
+        <v>0.1467190173921785</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>50</v>
@@ -8100,19 +8100,19 @@
         <v>54585</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>40593</v>
+        <v>42358</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>71199</v>
+        <v>70099</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.06617822658955125</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.04921391635435627</v>
+        <v>0.05135432380133174</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.08632055407082503</v>
+        <v>0.08498646589102875</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>142</v>
@@ -8121,19 +8121,19 @@
         <v>148664</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>124692</v>
+        <v>127160</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>171504</v>
+        <v>172155</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.09288582099271792</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.07790825823439808</v>
+        <v>0.07944994889268707</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1071561445827553</v>
+        <v>0.1075630527619077</v>
       </c>
     </row>
     <row r="50">
@@ -8150,19 +8150,19 @@
         <v>253422</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>228305</v>
+        <v>229830</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>279018</v>
+        <v>278501</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3267098836985703</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2943289609917308</v>
+        <v>0.296295442048376</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3597078527906725</v>
+        <v>0.3590415130293472</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>140</v>
@@ -8171,19 +8171,19 @@
         <v>158367</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>135737</v>
+        <v>134875</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>183516</v>
+        <v>182651</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1920003882582327</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1645642391853424</v>
+        <v>0.1635195313491264</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2224913205881221</v>
+        <v>0.2214416172609364</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>383</v>
@@ -8192,19 +8192,19 @@
         <v>411789</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>378660</v>
+        <v>377035</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>450667</v>
+        <v>449697</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2572868839836333</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.236588240661602</v>
+        <v>0.2355727935003666</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2815784075680262</v>
+        <v>0.2809718860608215</v>
       </c>
     </row>
     <row r="51">
@@ -8296,19 +8296,19 @@
         <v>334396</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>296585</v>
+        <v>299746</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>367149</v>
+        <v>370432</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.09904557853497201</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.08784633953151211</v>
+        <v>0.08878238366597209</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1087467964540763</v>
+        <v>0.1097193090434351</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>688</v>
@@ -8317,19 +8317,19 @@
         <v>738101</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>691630</v>
+        <v>692002</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>786753</v>
+        <v>795158</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2089733380029731</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1958161168198023</v>
+        <v>0.1959216481455384</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2227476698027166</v>
+        <v>0.2251273723413351</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>999</v>
@@ -8338,19 +8338,19 @@
         <v>1072497</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1013905</v>
+        <v>1012392</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1132812</v>
+        <v>1134475</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1552494708132306</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.146767958219624</v>
+        <v>0.1465489834962923</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1639803449584548</v>
+        <v>0.1642210587014718</v>
       </c>
     </row>
     <row r="53">
@@ -8367,19 +8367,19 @@
         <v>647420</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>606804</v>
+        <v>602399</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>695809</v>
+        <v>697119</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1917608616961822</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1797308866234393</v>
+        <v>0.1784261226534045</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.206093459372478</v>
+        <v>0.2064813390471006</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>873</v>
@@ -8388,19 +8388,19 @@
         <v>919917</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>872067</v>
+        <v>867616</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>977245</v>
+        <v>970142</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2604495425868162</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2469021336246348</v>
+        <v>0.2456417512900132</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.276680225318726</v>
+        <v>0.2746693784157532</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1486</v>
@@ -8409,19 +8409,19 @@
         <v>1567337</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1502795</v>
+        <v>1498204</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1634035</v>
+        <v>1642475</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2268800275938248</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2175372926212024</v>
+        <v>0.2168727213126919</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2365349284784866</v>
+        <v>0.2377566925505133</v>
       </c>
     </row>
     <row r="54">
@@ -8438,19 +8438,19 @@
         <v>534729</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>492504</v>
+        <v>489184</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>577085</v>
+        <v>576688</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1583827606241286</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1458760262296685</v>
+        <v>0.1448925553448118</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1709281458722485</v>
+        <v>0.1708106195837951</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>603</v>
@@ -8459,19 +8459,19 @@
         <v>625172</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>581583</v>
+        <v>579822</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>673834</v>
+        <v>668047</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1770004007688426</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1646593216475297</v>
+        <v>0.1641609291071415</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1907778288735451</v>
+        <v>0.1891392147518803</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1111</v>
@@ -8480,19 +8480,19 @@
         <v>1159901</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1097753</v>
+        <v>1099878</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1221281</v>
+        <v>1226643</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1679015923208073</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.158905425093979</v>
+        <v>0.1592129320667764</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1767867050572521</v>
+        <v>0.1775628513321527</v>
       </c>
     </row>
     <row r="55">
@@ -8509,19 +8509,19 @@
         <v>400156</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>360129</v>
+        <v>364544</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>436072</v>
+        <v>436617</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1185231075283297</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1066675035253899</v>
+        <v>0.1079751438176259</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1291613148837542</v>
+        <v>0.1293227098887386</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>278</v>
@@ -8530,19 +8530,19 @@
         <v>286350</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>254647</v>
+        <v>256768</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>318511</v>
+        <v>320321</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.08107224597788057</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.0720964170045667</v>
+        <v>0.07269681688929226</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.09017781591779479</v>
+        <v>0.09069017189224414</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>656</v>
@@ -8551,19 +8551,19 @@
         <v>686506</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>637937</v>
+        <v>637348</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>741101</v>
+        <v>740250</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.09937522169406843</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.09234470322594805</v>
+        <v>0.09225939169911057</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1072781181984165</v>
+        <v>0.1071549675830681</v>
       </c>
     </row>
     <row r="56">
@@ -8580,19 +8580,19 @@
         <v>1459482</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1404317</v>
+        <v>1399535</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1523796</v>
+        <v>1518451</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.4322876916163875</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4159482110902418</v>
+        <v>0.4145315882946306</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4513368555338407</v>
+        <v>0.4497537789818888</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>886</v>
@@ -8601,19 +8601,19 @@
         <v>962496</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>907016</v>
+        <v>912511</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1018035</v>
+        <v>1020151</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2725044726634875</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2567968603870852</v>
+        <v>0.2583526256369406</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2882288134149438</v>
+        <v>0.2888280441125636</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2289</v>
@@ -8622,19 +8622,19 @@
         <v>2421978</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2343036</v>
+        <v>2343768</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2502607</v>
+        <v>2504560</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3505936875780689</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3391665049728138</v>
+        <v>0.3392724145956196</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3622652734050848</v>
+        <v>0.3625478950682146</v>
       </c>
     </row>
     <row r="57">
